--- a/RoomBillz/src/main/resources/static/PurchaseOrderSampleFile.xlsx
+++ b/RoomBillz/src/main/resources/static/PurchaseOrderSampleFile.xlsx
@@ -152,7 +152,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
@@ -192,6 +192,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -219,12 +222,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="18.16015625" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="20.16015625" customWidth="1"/>
-    <col min="5" max="5" width="24.66015625" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="37.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.66015625" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
     <col min="7" max="7" width="29.33203125" customWidth="1"/>
     <col min="8" max="8" width="24.5" customWidth="1"/>
     <col min="9" max="9" width="22.16015625" customWidth="1"/>
@@ -232,41 +235,41 @@
     <col min="11" max="11" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
